--- a/values_variablesonly.xlsx
+++ b/values_variablesonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jialei\Documents\mup_fw21\quantitative\r_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15304B0D-0C37-4FA2-8FC4-0EA9EB7A3B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F88A32-6F5F-42FC-9D64-7BDB32FBA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="24300" windowHeight="13800" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
+    <workbookView xWindow="0" yWindow="308" windowWidth="24300" windowHeight="13800" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
   <si>
     <t>Account number</t>
   </si>
@@ -469,21 +469,6 @@
   </si>
   <si>
     <t>POINT (103.82 1.35208)</t>
-  </si>
-  <si>
-    <t>Sample Mean</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Confidence</t>
-  </si>
-  <si>
-    <t>Sample Proportion</t>
-  </si>
-  <si>
-    <t>Interquartile</t>
   </si>
   <si>
     <t>PercentageRenewable</t>
@@ -877,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F0525E-17CB-4F7E-9BEF-9CA84C9379DA}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -888,8 +873,9 @@
     <col min="2" max="2" width="31.06640625" customWidth="1"/>
     <col min="4" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" customWidth="1"/>
     <col min="9" max="9" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -901,25 +887,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
@@ -2714,70 +2700,8 @@
         <v>6.4939999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51">
-        <f>AVERAGE(D2:D49)</f>
-        <v>3461590.5625</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" ref="I51:L51" si="0">AVERAGE(I2:I49)</f>
-        <v>0.42375000000000007</v>
-      </c>
-      <c r="J51">
-        <f>AVERAGE(J2:J49)</f>
-        <v>7829.9742812855338</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>17564720.398333333</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>6.4194375000000008</v>
-      </c>
-    </row>
     <row r="52" spans="1:12">
-      <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52">
-        <f>STDEV(D2:D49)</f>
-        <v>3510421.2761035124</v>
-      </c>
-      <c r="I52">
-        <f>STDEV(I2:I49)</f>
-        <v>0.31829081443420798</v>
-      </c>
-      <c r="J52">
-        <f>STDEV(J2:J49)</f>
-        <v>10214.62589924428</v>
-      </c>
-      <c r="K52">
-        <f>STDEV(K2:K49)</f>
-        <v>28089516.693926532</v>
-      </c>
-      <c r="L52">
-        <f>STDEV(L2:L49)</f>
-        <v>0.89902926149925988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
+      <c r="I52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/values_variablesonly.xlsx
+++ b/values_variablesonly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jialei\Documents\mup_fw21\quantitative\r_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F88A32-6F5F-42FC-9D64-7BDB32FBA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C87B57-5DA3-4CFF-94C3-A6DE1B162370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="308" windowWidth="24300" windowHeight="13800" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
   </bookViews>
@@ -862,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F0525E-17CB-4F7E-9BEF-9CA84C9379DA}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2700,9 +2700,6 @@
         <v>6.4939999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="I52"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/values_variablesonly.xlsx
+++ b/values_variablesonly.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jialei\Documents\mup_fw21\quantitative\r_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C87B57-5DA3-4CFF-94C3-A6DE1B162370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74801B58-451B-4216-BDC9-87ED8A7C6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="308" windowWidth="24300" windowHeight="13800" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="24300" windowHeight="13800" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Account number</t>
   </si>
@@ -72,15 +75,6 @@
     <t>POINT (-80.13 25.7906)</t>
   </si>
   <si>
-    <t>Antananarivo</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>POINT (47.5079 -18.8792)</t>
-  </si>
-  <si>
     <t>City of Helsinki</t>
   </si>
   <si>
@@ -201,15 +195,6 @@
     <t>POINT (-90.5069 14.6349)</t>
   </si>
   <si>
-    <t>Ville de Dakar</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>POINT (-17.366 14.7645)</t>
-  </si>
-  <si>
     <t>Le Grand Casablanca</t>
   </si>
   <si>
@@ -336,9 +321,6 @@
     <t>POINT (18.0686 59.3293)</t>
   </si>
   <si>
-    <t>City of Reykjavík</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -420,15 +402,6 @@
     <t>POINT (114.14 22.2881)</t>
   </si>
   <si>
-    <t>City of Dar es Salaam</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>POINT (39.2083 -6.79235)</t>
-  </si>
-  <si>
     <t>Greater Amman Municipality</t>
   </si>
   <si>
@@ -474,9 +447,6 @@
     <t>PercentageRenewable</t>
   </si>
   <si>
-    <t>VAdone?</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -484,6 +454,12 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Vadone</t>
+  </si>
+  <si>
+    <t>City of Reykjavik</t>
   </si>
 </sst>
 </file>
@@ -541,12 +517,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F0525E-17CB-4F7E-9BEF-9CA84C9379DA}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="F3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -873,7 +851,7 @@
     <col min="2" max="2" width="31.06640625" customWidth="1"/>
     <col min="4" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="6" customWidth="1"/>
     <col min="9" max="9" width="18.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
@@ -887,25 +865,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>146</v>
+      <c r="H1" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
@@ -936,7 +914,10 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1">
@@ -954,7 +935,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>36223</v>
+        <v>8242</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -963,33 +944,36 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1275000</v>
+        <v>655395</v>
       </c>
       <c r="E3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1">
-        <v>0.2</v>
+        <v>0.86</v>
       </c>
       <c r="J3">
-        <v>14998.235501705682</v>
+        <v>3059.02</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5842978</v>
       </c>
       <c r="L3">
-        <v>4.3479999999999999</v>
+        <v>7.8280000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>8242</v>
+        <v>35885</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -998,33 +982,36 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>655395</v>
+        <v>460600</v>
       </c>
       <c r="E4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="J4">
-        <v>3059.02</v>
+        <v>8857.69</v>
       </c>
       <c r="K4">
-        <v>5842978</v>
+        <v>5296900</v>
       </c>
       <c r="L4">
-        <v>7.8280000000000003</v>
+        <v>7.4610000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>35885</v>
+        <v>36039</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1033,42 +1020,45 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>460600</v>
+        <v>2514005</v>
       </c>
       <c r="E5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I5" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8857.69</v>
+        <v>47527.32</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2715125.4</v>
       </c>
       <c r="L5">
-        <v>7.4610000000000003</v>
+        <v>5.2670000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>36039</v>
+        <v>1499</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>2514005</v>
+        <v>1664182</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -1077,138 +1067,141 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J6">
-        <v>47527.32</v>
+        <v>16291.55</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3963833</v>
       </c>
       <c r="L6">
-        <v>5.2670000000000003</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>1499</v>
+        <v>35860</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1345047</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
-        <v>1664182</v>
-      </c>
-      <c r="E7">
-        <v>2020</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I7" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="J7">
-        <v>16291.55</v>
+        <v>1349.09</v>
       </c>
       <c r="K7">
-        <v>3963833</v>
+        <v>22193275.5</v>
       </c>
       <c r="L7">
-        <v>6.38</v>
+        <v>7.1550000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>35860</v>
+        <v>31090</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>1345047</v>
+        <v>708253</v>
       </c>
       <c r="E8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="J8">
-        <v>1349.09</v>
+        <v>4482.6099999999997</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7059316.3899999997</v>
       </c>
       <c r="L8">
-        <v>7.1550000000000002</v>
+        <v>7.1849999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>31090</v>
+        <v>31111</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
       <c r="D9">
-        <v>708253</v>
+        <v>13957977</v>
       </c>
       <c r="E9">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
-        <v>4482.6099999999997</v>
+        <v>6361.74</v>
       </c>
       <c r="K9">
-        <v>7059316.3899999997</v>
+        <v>81123885.959999993</v>
       </c>
       <c r="L9">
-        <v>7.1849999999999996</v>
+        <v>5.9889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>31111</v>
+        <v>31155</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1217,36 +1210,36 @@
         <v>34</v>
       </c>
       <c r="D10">
-        <v>13957977</v>
+        <v>3068043</v>
       </c>
       <c r="E10">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J10">
-        <v>6361.74</v>
+        <v>15188.33</v>
       </c>
       <c r="K10">
-        <v>81123885.959999993</v>
+        <v>19388488.920000002</v>
       </c>
       <c r="L10">
-        <v>5.9889999999999999</v>
+        <v>6.3239999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>31155</v>
+        <v>35913</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1255,36 +1248,36 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>3068043</v>
+        <v>4700000</v>
       </c>
       <c r="E11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I11" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15188.33</v>
+        <v>6752.87</v>
       </c>
       <c r="K11">
-        <v>19388488.920000002</v>
+        <v>6093576</v>
       </c>
       <c r="L11">
-        <v>6.3239999999999998</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>35913</v>
+        <v>31174</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1293,150 +1286,150 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>4700000</v>
+        <v>12655050</v>
       </c>
       <c r="E12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J12">
-        <v>6752.87</v>
+        <v>4939.5200000000004</v>
       </c>
       <c r="K12">
-        <v>6093576</v>
+        <v>97210636</v>
       </c>
       <c r="L12">
-        <v>5.15</v>
+        <v>6.0279999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>31174</v>
+        <v>31108</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2320268</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="D13">
-        <v>12655050</v>
-      </c>
-      <c r="E13">
-        <v>2020</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
       <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="I13" s="1">
-        <v>0.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J13">
-        <v>4939.5200000000004</v>
+        <v>1335.11</v>
       </c>
       <c r="K13">
-        <v>97210636</v>
+        <v>34054559</v>
       </c>
       <c r="L13">
-        <v>6.0279999999999996</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>31108</v>
+        <v>10894</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14">
-        <v>2320268</v>
+        <v>4021488</v>
       </c>
       <c r="E14">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="J14">
-        <v>1335.11</v>
+        <v>3309.87</v>
       </c>
       <c r="K14">
-        <v>34054559</v>
+        <v>54964186</v>
       </c>
       <c r="L14">
-        <v>7.11</v>
+        <v>6.9560000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>10894</v>
+        <v>31187</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
       <c r="D15">
-        <v>4021488</v>
+        <v>9911088</v>
       </c>
       <c r="E15">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="J15">
-        <v>3309.87</v>
+        <v>16375.74</v>
       </c>
       <c r="K15">
-        <v>54964186</v>
+        <v>666211</v>
       </c>
       <c r="L15">
-        <v>6.9560000000000004</v>
+        <v>5.9470000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>31187</v>
+        <v>51079</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1445,7 +1438,7 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>9911088</v>
+        <v>902522</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -1454,27 +1447,27 @@
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="I16" s="1">
-        <v>0.34</v>
+        <v>0.72</v>
       </c>
       <c r="J16">
-        <v>16375.74</v>
+        <v>3958.43</v>
       </c>
       <c r="K16">
-        <v>666211</v>
+        <v>2138455.36</v>
       </c>
       <c r="L16">
-        <v>5.9470000000000001</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>51079</v>
+        <v>35903</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -1483,33 +1476,36 @@
         <v>53</v>
       </c>
       <c r="D17">
-        <v>902522</v>
+        <v>3360000</v>
       </c>
       <c r="E17">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>0.72</v>
+        <v>0.11</v>
       </c>
       <c r="J17">
-        <v>3958.43</v>
+        <v>3008.06</v>
       </c>
       <c r="K17">
-        <v>2138455.36</v>
+        <v>6048000</v>
       </c>
       <c r="L17">
-        <v>6.65</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>36032</v>
+        <v>36426</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -1518,36 +1514,36 @@
         <v>56</v>
       </c>
       <c r="D18">
-        <v>1252786</v>
+        <v>614618</v>
       </c>
       <c r="E18">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="I18" s="1">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="J18">
-        <v>15240.71</v>
+        <v>2021.44</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1570000</v>
       </c>
       <c r="L18">
-        <v>5.2560000000000002</v>
+        <v>6.1749999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>35903</v>
+        <v>14088</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -1556,220 +1552,226 @@
         <v>59</v>
       </c>
       <c r="D19">
-        <v>3360000</v>
+        <v>697010</v>
       </c>
       <c r="E19">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>0.11</v>
+        <v>0.98</v>
       </c>
       <c r="J19">
-        <v>3008.06</v>
+        <v>1535.26</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1726506</v>
       </c>
       <c r="L19">
-        <v>5.18</v>
+        <v>7.2320000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>36426</v>
+        <v>35268</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>694295</v>
+      </c>
+      <c r="E20">
+        <v>2019</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="D20">
-        <v>614618</v>
-      </c>
-      <c r="E20">
-        <v>2021</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>0.02</v>
+        <v>0.49</v>
       </c>
       <c r="J20">
-        <v>2021.44</v>
+        <v>3003.79</v>
       </c>
       <c r="K20">
-        <v>1570000</v>
+        <v>6192461</v>
       </c>
       <c r="L20">
-        <v>6.1749999999999998</v>
+        <v>7.0910000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>14088</v>
+        <v>31180</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21">
+        <v>8125072</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="D21">
-        <v>697010</v>
-      </c>
-      <c r="E21">
-        <v>2021</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
-        <v>1535.26</v>
+        <v>527.5</v>
       </c>
       <c r="K21">
-        <v>1726506</v>
+        <v>27019327</v>
       </c>
       <c r="L21">
-        <v>7.2320000000000002</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>35268</v>
+        <v>31181</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>694295</v>
+        <v>1584064</v>
       </c>
       <c r="E22">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="J22">
-        <v>3003.79</v>
+        <v>4316.25</v>
       </c>
       <c r="K22">
-        <v>6192461</v>
+        <v>14128004.310000001</v>
       </c>
       <c r="L22">
-        <v>7.0910000000000002</v>
+        <v>7.0039999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>31180</v>
+        <v>3422</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23">
+        <v>8908081</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="D23">
-        <v>8125072</v>
-      </c>
-      <c r="E23">
-        <v>2020</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
       <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="J23">
-        <v>527.5</v>
+        <v>5585</v>
       </c>
       <c r="K23">
-        <v>27019327</v>
+        <v>37497128</v>
       </c>
       <c r="L23">
-        <v>6.77</v>
+        <v>6.782</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>31181</v>
+        <v>43937</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
       <c r="D24">
-        <v>1584064</v>
+        <v>215000</v>
       </c>
       <c r="E24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="J24">
-        <v>4316.25</v>
+        <v>741.38</v>
       </c>
       <c r="K24">
-        <v>14128004.310000001</v>
+        <v>995015.51</v>
       </c>
       <c r="L24">
-        <v>7.0039999999999996</v>
+        <v>7.5529999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>3422</v>
+        <v>31175</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -1778,7 +1780,7 @@
         <v>75</v>
       </c>
       <c r="D25">
-        <v>8908081</v>
+        <v>2210875</v>
       </c>
       <c r="E25">
         <v>2018</v>
@@ -1787,138 +1789,141 @@
         <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="J25">
-        <v>5585</v>
+        <v>21055.95</v>
       </c>
       <c r="K25">
-        <v>37497128</v>
+        <v>16270895</v>
       </c>
       <c r="L25">
-        <v>6.782</v>
+        <v>6.6349999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>43937</v>
+        <v>3203</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2693976</v>
+      </c>
+      <c r="E26">
+        <v>2019</v>
+      </c>
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="D26">
-        <v>215000</v>
-      </c>
-      <c r="E26">
-        <v>2020</v>
-      </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="J26">
-        <v>741.38</v>
+        <v>4445.5</v>
       </c>
       <c r="K26">
-        <v>995015.51</v>
+        <v>31035385</v>
       </c>
       <c r="L26">
-        <v>7.5529999999999999</v>
+        <v>7.0330000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>31175</v>
+        <v>31172</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
       <c r="D27">
-        <v>2210875</v>
+        <v>9041395</v>
       </c>
       <c r="E27">
         <v>2018</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>21055.95</v>
+        <v>6088.48</v>
       </c>
       <c r="K27">
-        <v>16270895</v>
+        <v>45791915.079999998</v>
       </c>
       <c r="L27">
-        <v>6.6349999999999998</v>
+        <v>6.6929999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>3203</v>
+        <v>42178</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
       <c r="D28">
-        <v>2693976</v>
+        <v>2239191</v>
       </c>
       <c r="E28">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="F28" t="s">
         <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J28">
-        <v>4445.5</v>
+        <v>529.36</v>
       </c>
       <c r="K28">
-        <v>31035385</v>
+        <v>7339</v>
       </c>
       <c r="L28">
-        <v>7.0330000000000004</v>
+        <v>6.4370000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>31172</v>
+        <v>31114</v>
       </c>
       <c r="B29" t="s">
         <v>85</v>
@@ -1927,36 +1932,36 @@
         <v>86</v>
       </c>
       <c r="D29">
-        <v>9041395</v>
+        <v>248736</v>
       </c>
       <c r="E29">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F29" t="s">
         <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J29">
-        <v>6088.48</v>
+        <v>9308.98</v>
       </c>
       <c r="K29">
-        <v>45791915.079999998</v>
+        <v>3480173.51</v>
       </c>
       <c r="L29">
-        <v>6.6929999999999996</v>
+        <v>7.133</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>42178</v>
+        <v>31009</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
@@ -1965,36 +1970,36 @@
         <v>89</v>
       </c>
       <c r="D30">
-        <v>2239191</v>
+        <v>638147</v>
       </c>
       <c r="E30">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="F30" t="s">
         <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="J30">
-        <v>529.36</v>
+        <v>6989.56</v>
       </c>
       <c r="K30">
-        <v>7339</v>
+        <v>1275744</v>
       </c>
       <c r="L30">
-        <v>6.4370000000000003</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>31114</v>
+        <v>3429</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
@@ -2003,7 +2008,7 @@
         <v>92</v>
       </c>
       <c r="D31">
-        <v>248736</v>
+        <v>981105</v>
       </c>
       <c r="E31">
         <v>2020</v>
@@ -2012,691 +2017,592 @@
         <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>0.16</v>
+        <v>0.95</v>
       </c>
       <c r="J31">
-        <v>9308.98</v>
+        <v>52465.51</v>
       </c>
       <c r="K31">
-        <v>3480173.51</v>
+        <v>2108848</v>
       </c>
       <c r="L31">
-        <v>7.133</v>
+        <v>7.3730000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>31009</v>
+        <v>54459</v>
       </c>
       <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
       <c r="D32">
-        <v>638147</v>
+        <v>133262</v>
       </c>
       <c r="E32">
         <v>2021</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>6989.56</v>
+        <v>486.36</v>
       </c>
       <c r="K32">
-        <v>1275744</v>
+        <v>534590</v>
       </c>
       <c r="L32">
-        <v>7.53</v>
+        <v>7.3170000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>3429</v>
+        <v>35858</v>
       </c>
       <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33">
+        <v>4423834</v>
+      </c>
+      <c r="E33">
+        <v>2018</v>
+      </c>
+      <c r="F33" t="s">
         <v>98</v>
       </c>
-      <c r="D33">
-        <v>981105</v>
-      </c>
-      <c r="E33">
-        <v>2020</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
       <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="J33">
-        <v>52465.51</v>
+        <v>1813.05</v>
       </c>
       <c r="K33">
-        <v>2108848</v>
+        <v>23371257</v>
       </c>
       <c r="L33">
-        <v>7.3730000000000002</v>
+        <v>5.2649999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>54459</v>
+        <v>56276</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34">
+        <v>4030954</v>
+      </c>
+      <c r="E34">
+        <v>2020</v>
+      </c>
+      <c r="F34" t="s">
         <v>101</v>
       </c>
-      <c r="D34">
-        <v>133262</v>
-      </c>
-      <c r="E34">
-        <v>2021</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J34">
-        <v>486.36</v>
+        <v>1964.4</v>
       </c>
       <c r="K34">
-        <v>534590</v>
+        <v>18688721.550000001</v>
       </c>
       <c r="L34">
-        <v>7.3170000000000002</v>
+        <v>6.5170000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>35858</v>
+        <v>36159</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35">
+        <v>544851</v>
+      </c>
+      <c r="E35">
+        <v>2021</v>
+      </c>
+      <c r="F35" t="s">
         <v>104</v>
       </c>
-      <c r="D35">
-        <v>4423834</v>
-      </c>
-      <c r="E35">
-        <v>2018</v>
-      </c>
-      <c r="F35" t="s">
-        <v>105</v>
-      </c>
       <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="J35">
-        <v>1813.05</v>
+        <v>6342.85</v>
       </c>
       <c r="K35">
-        <v>23371257</v>
+        <v>2287946</v>
       </c>
       <c r="L35">
-        <v>5.2649999999999997</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>56276</v>
+        <v>31149</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36">
+        <v>661299</v>
+      </c>
+      <c r="E36">
+        <v>2019</v>
+      </c>
+      <c r="F36" t="s">
         <v>107</v>
       </c>
-      <c r="D36">
-        <v>4030954</v>
-      </c>
-      <c r="E36">
-        <v>2020</v>
-      </c>
-      <c r="F36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="J36">
-        <v>1964.4</v>
+        <v>16956.38</v>
       </c>
       <c r="K36">
-        <v>18688721.550000001</v>
+        <v>4581962</v>
       </c>
       <c r="L36">
-        <v>6.5170000000000003</v>
+        <v>5.3449999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>36159</v>
+        <v>35449</v>
       </c>
       <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37">
+        <v>434736</v>
+      </c>
+      <c r="E37">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="s">
         <v>110</v>
       </c>
-      <c r="D37">
-        <v>544851</v>
-      </c>
-      <c r="E37">
-        <v>2021</v>
-      </c>
-      <c r="F37" t="s">
-        <v>111</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>6342.85</v>
+        <v>4730.53</v>
       </c>
       <c r="K37">
-        <v>2287946</v>
+        <v>1109802</v>
       </c>
       <c r="L37">
-        <v>5.66</v>
+        <v>7.5410000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>31149</v>
+        <v>31115</v>
       </c>
       <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>5870000</v>
+      </c>
+      <c r="E38">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38">
-        <v>661299</v>
-      </c>
-      <c r="E38">
-        <v>2019</v>
-      </c>
-      <c r="F38" t="s">
-        <v>114</v>
-      </c>
       <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="J38">
-        <v>16956.38</v>
+        <v>3568.39</v>
       </c>
       <c r="K38">
-        <v>4581962</v>
+        <v>17695308</v>
       </c>
       <c r="L38">
-        <v>5.3449999999999998</v>
+        <v>5.3609999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>35449</v>
+        <v>3417</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>434736</v>
+        <v>8399000</v>
       </c>
       <c r="E39">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="J39">
-        <v>4730.53</v>
+        <v>6922.04</v>
       </c>
       <c r="K39">
-        <v>1109802</v>
+        <v>50692925</v>
       </c>
       <c r="L39">
-        <v>7.5410000000000004</v>
+        <v>6.9640000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>31115</v>
+        <v>43920</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D40">
-        <v>5870000</v>
+        <v>294464</v>
       </c>
       <c r="E40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>0.01</v>
+        <v>0.41</v>
       </c>
       <c r="J40">
-        <v>3568.39</v>
+        <v>1070.82</v>
       </c>
       <c r="K40">
-        <v>17695308</v>
+        <v>1889033</v>
       </c>
       <c r="L40">
-        <v>5.3609999999999998</v>
+        <v>6.1779999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>3417</v>
+        <v>31169</v>
       </c>
       <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41">
+        <v>7481800</v>
+      </c>
+      <c r="E41">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>8399000</v>
-      </c>
-      <c r="E41">
-        <v>2018</v>
-      </c>
-      <c r="F41" t="s">
-        <v>121</v>
-      </c>
       <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="J41">
-        <v>6922.04</v>
+        <v>6739.27</v>
       </c>
       <c r="K41">
-        <v>50692925</v>
+        <v>65774900.630000003</v>
       </c>
       <c r="L41">
-        <v>6.9640000000000004</v>
+        <v>5.444</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>43920</v>
+        <v>54337</v>
       </c>
       <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42">
+        <v>3800000</v>
+      </c>
+      <c r="E42">
+        <v>2018</v>
+      </c>
+      <c r="F42" t="s">
         <v>123</v>
       </c>
-      <c r="D42">
-        <v>294464</v>
-      </c>
-      <c r="E42">
-        <v>2021</v>
-      </c>
-      <c r="F42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I42" s="1">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="J42">
-        <v>1070.82</v>
+        <v>4750</v>
       </c>
       <c r="K42">
-        <v>1889033</v>
+        <v>11943214</v>
       </c>
       <c r="L42">
-        <v>6.1779999999999999</v>
+        <v>5.2750000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>31169</v>
+        <v>31171</v>
       </c>
       <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>3223334</v>
+      </c>
+      <c r="E43">
+        <v>2018</v>
+      </c>
+      <c r="F43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43">
-        <v>7481800</v>
-      </c>
-      <c r="E43">
-        <v>2020</v>
-      </c>
-      <c r="F43" t="s">
-        <v>127</v>
-      </c>
       <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>0.27</v>
+        <v>0.59</v>
       </c>
       <c r="J43">
-        <v>6739.27</v>
+        <v>5319.03</v>
       </c>
       <c r="K43">
-        <v>65774900.630000003</v>
+        <v>11105716.699999999</v>
       </c>
       <c r="L43">
-        <v>5.444</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>35893</v>
+        <v>31150</v>
       </c>
       <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
+        <v>8420887</v>
+      </c>
+      <c r="E44">
+        <v>2016</v>
+      </c>
+      <c r="F44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44">
-        <v>6041000</v>
-      </c>
-      <c r="E44">
-        <v>2019</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
       <c r="G44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>0.87</v>
+        <v>0.22</v>
       </c>
       <c r="J44">
-        <v>549.73</v>
+        <v>5367.94</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <f>15.5*D44</f>
+        <v>130523748.5</v>
       </c>
       <c r="L44">
-        <v>3.9609999999999999</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>54337</v>
+        <v>31117</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45">
-        <v>3800000</v>
+        <v>2956024</v>
       </c>
       <c r="E45">
         <v>2018</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>0.09</v>
+        <v>0.71</v>
       </c>
       <c r="J45">
-        <v>4750</v>
+        <v>4692.1000000000004</v>
       </c>
       <c r="K45">
-        <v>11943214</v>
+        <v>99924</v>
       </c>
       <c r="L45">
-        <v>5.2750000000000004</v>
+        <v>7.298</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>31171</v>
+        <v>35993</v>
       </c>
       <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46">
+        <v>5685807</v>
+      </c>
+      <c r="E46">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46">
-        <v>3223334</v>
-      </c>
-      <c r="E46">
-        <v>2018</v>
-      </c>
-      <c r="F46" t="s">
-        <v>135</v>
-      </c>
       <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
       <c r="J46">
-        <v>5319.03</v>
+        <v>7851.16</v>
       </c>
       <c r="K46">
-        <v>11105716.699999999</v>
+        <v>161238000</v>
       </c>
       <c r="L46">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>31150</v>
-      </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47">
-        <v>8420887</v>
-      </c>
-      <c r="E47">
-        <v>2016</v>
-      </c>
-      <c r="F47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="J47">
-        <v>5367.94</v>
-      </c>
-      <c r="K47">
-        <f>15.5*D47</f>
-        <v>130523748.5</v>
-      </c>
-      <c r="L47">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
-        <v>31117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48">
-        <v>2956024</v>
-      </c>
-      <c r="E48">
-        <v>2018</v>
-      </c>
-      <c r="F48" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="J48">
-        <v>4692.1000000000004</v>
-      </c>
-      <c r="K48">
-        <v>99924</v>
-      </c>
-      <c r="L48">
-        <v>7.298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
-        <v>35993</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49">
-        <v>5685807</v>
-      </c>
-      <c r="E49">
-        <v>2020</v>
-      </c>
-      <c r="F49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J49">
-        <v>7851.16</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
         <v>6.4939999999999998</v>
       </c>
     </row>

--- a/values_variablesonly.xlsx
+++ b/values_variablesonly.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jialei\Documents\mup_fw21\quantitative\r_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74801B58-451B-4216-BDC9-87ED8A7C6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA12A0A3-9B76-4B0D-9816-9D88EC17DBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="24300" windowHeight="13800" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
+    <workbookView xWindow="0" yWindow="1095" windowWidth="24300" windowHeight="13807" xr2:uid="{E8D8588A-63B1-45E3-B14B-94FB06CFA7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
   <si>
     <t>Account number</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>City of Reykjavik</t>
+  </si>
+  <si>
+    <t>PercentRenew</t>
+  </si>
+  <si>
+    <t>Vacommenced</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -525,6 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,10 +847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F0525E-17CB-4F7E-9BEF-9CA84C9379DA}">
-  <dimension ref="A1:L46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -851,13 +859,14 @@
     <col min="2" max="2" width="31.06640625" customWidth="1"/>
     <col min="4" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,20 +891,26 @@
       <c r="H1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>63999</v>
       </c>
@@ -920,20 +935,27 @@
       <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.26</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="7">
+        <f>J2*100</f>
+        <v>26</v>
+      </c>
+      <c r="L2">
         <v>5064.8599999999997</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1202663.7</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>7.0279999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>8242</v>
       </c>
@@ -958,20 +980,27 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.86</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K46" si="0">J3*100</f>
+        <v>86</v>
+      </c>
+      <c r="L3">
         <v>3059.02</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>5842978</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>7.8280000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4">
         <v>35885</v>
       </c>
@@ -996,20 +1025,27 @@
       <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.05</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L4">
         <v>8857.69</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>5296900</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>7.4610000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5">
         <v>36039</v>
       </c>
@@ -1034,20 +1070,27 @@
       <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>47527.32</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>2715125.4</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1499</v>
       </c>
@@ -1072,20 +1115,27 @@
       <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.75</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L6">
         <v>16291.55</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>3963833</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>6.38</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7">
         <v>35860</v>
       </c>
@@ -1110,20 +1160,27 @@
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.33</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L7">
         <v>1349.09</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>22193275.5</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>7.1550000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>31090</v>
       </c>
@@ -1148,20 +1205,27 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.44</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L8">
         <v>4482.6099999999997</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>7059316.3899999997</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>7.1849999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9">
         <v>31111</v>
       </c>
@@ -1186,20 +1250,27 @@
       <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.2</v>
       </c>
-      <c r="J9">
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L9">
         <v>6361.74</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>81123885.959999993</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>5.9889999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10">
         <v>31155</v>
       </c>
@@ -1224,20 +1295,27 @@
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.4</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L10">
         <v>15188.33</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>19388488.920000002</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>6.3239999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11">
         <v>35913</v>
       </c>
@@ -1262,20 +1340,27 @@
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>6752.87</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>6093576</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>5.15</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12">
         <v>31174</v>
       </c>
@@ -1300,20 +1385,27 @@
       <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.01</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>4939.5200000000004</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>97210636</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>6.0279999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>31108</v>
       </c>
@@ -1338,20 +1430,27 @@
       <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J13">
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="L13">
         <v>1335.11</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>34054559</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>7.11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>10894</v>
       </c>
@@ -1376,20 +1475,27 @@
       <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
         <v>0.51</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="L14">
         <v>3309.87</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>54964186</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>6.9560000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15">
         <v>31187</v>
       </c>
@@ -1414,20 +1520,27 @@
       <c r="H15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
         <v>0.34</v>
       </c>
-      <c r="J15">
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L15">
         <v>16375.74</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>666211</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>5.9470000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>51079</v>
       </c>
@@ -1452,20 +1565,27 @@
       <c r="H16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.72</v>
       </c>
-      <c r="J16">
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="L16">
         <v>3958.43</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>2138455.36</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>6.65</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17">
         <v>35903</v>
       </c>
@@ -1490,20 +1610,27 @@
       <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.11</v>
       </c>
-      <c r="J17">
+      <c r="K17" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L17">
         <v>3008.06</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>6048000</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>5.18</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>36426</v>
       </c>
@@ -1528,20 +1655,27 @@
       <c r="H18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.02</v>
       </c>
-      <c r="J18">
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>2021.44</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1570000</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>6.1749999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19">
         <v>14088</v>
       </c>
@@ -1566,20 +1700,27 @@
       <c r="H19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
         <v>0.98</v>
       </c>
-      <c r="J19">
+      <c r="K19" s="7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="L19">
         <v>1535.26</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>1726506</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>7.2320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20">
         <v>35268</v>
       </c>
@@ -1604,20 +1745,27 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
         <v>0.49</v>
       </c>
-      <c r="J20">
+      <c r="K20" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="L20">
         <v>3003.79</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>6192461</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>7.0910000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21">
         <v>31180</v>
       </c>
@@ -1642,20 +1790,27 @@
       <c r="H21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
         <v>0.5</v>
       </c>
-      <c r="J21">
+      <c r="K21" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L21">
         <v>527.5</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>27019327</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>6.77</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22">
         <v>31181</v>
       </c>
@@ -1680,20 +1835,27 @@
       <c r="H22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
         <v>0.44</v>
       </c>
-      <c r="J22">
+      <c r="K22" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L22">
         <v>4316.25</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>14128004.310000001</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>7.0039999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23">
         <v>3422</v>
       </c>
@@ -1718,20 +1880,27 @@
       <c r="H23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
         <v>0.53</v>
       </c>
-      <c r="J23">
+      <c r="K23" s="7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="L23">
         <v>5585</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>37497128</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>6.782</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24">
         <v>43937</v>
       </c>
@@ -1756,20 +1925,27 @@
       <c r="H24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
         <v>0.86</v>
       </c>
-      <c r="J24">
+      <c r="K24" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="L24">
         <v>741.38</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>995015.51</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>7.5529999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25">
         <v>31175</v>
       </c>
@@ -1794,20 +1970,27 @@
       <c r="H25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
         <v>0.93</v>
       </c>
-      <c r="J25">
+      <c r="K25" s="7">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="L25">
         <v>21055.95</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>16270895</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>6.6349999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26">
         <v>3203</v>
       </c>
@@ -1832,20 +2015,27 @@
       <c r="H26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
         <v>0.4</v>
       </c>
-      <c r="J26">
+      <c r="K26" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L26">
         <v>4445.5</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>31035385</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>7.0330000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27">
         <v>31172</v>
       </c>
@@ -1870,20 +2060,27 @@
       <c r="H27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="K27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>6088.48</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>45791915.079999998</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>6.6929999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28">
         <v>42178</v>
       </c>
@@ -1908,20 +2105,27 @@
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
         <v>0.9</v>
       </c>
-      <c r="J28">
+      <c r="K28" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L28">
         <v>529.36</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>7339</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>6.4370000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29">
         <v>31114</v>
       </c>
@@ -1946,20 +2150,27 @@
       <c r="H29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
         <v>0.16</v>
       </c>
-      <c r="J29">
+      <c r="K29" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L29">
         <v>9308.98</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>3480173.51</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>7.133</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30">
         <v>31009</v>
       </c>
@@ -1984,20 +2195,27 @@
       <c r="H30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <v>0.74</v>
       </c>
-      <c r="J30">
+      <c r="K30" s="7">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="L30">
         <v>6989.56</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>1275744</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>7.53</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31">
         <v>3429</v>
       </c>
@@ -2022,20 +2240,27 @@
       <c r="H31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
         <v>0.95</v>
       </c>
-      <c r="J31">
+      <c r="K31" s="7">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="L31">
         <v>52465.51</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>2108848</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>7.3730000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32">
         <v>54459</v>
       </c>
@@ -2060,20 +2285,27 @@
       <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="K32" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L32">
         <v>486.36</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>534590</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>7.3170000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33">
         <v>35858</v>
       </c>
@@ -2098,20 +2330,27 @@
       <c r="H33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
         <v>0.1</v>
       </c>
-      <c r="J33">
+      <c r="K33" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L33">
         <v>1813.05</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>23371257</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>5.2649999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34">
         <v>56276</v>
       </c>
@@ -2136,20 +2375,27 @@
       <c r="H34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J34">
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="L34">
         <v>1964.4</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>18688721.550000001</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>6.5170000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35">
         <v>36159</v>
       </c>
@@ -2174,20 +2420,27 @@
       <c r="H35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.41</v>
       </c>
-      <c r="J35">
+      <c r="K35" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="L35">
         <v>6342.85</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>2287946</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>5.66</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14" hidden="1">
       <c r="A36">
         <v>31149</v>
       </c>
@@ -2212,20 +2465,27 @@
       <c r="H36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
         <v>0.31</v>
       </c>
-      <c r="J36">
+      <c r="K36" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L36">
         <v>16956.38</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>4581962</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>5.3449999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14" hidden="1">
       <c r="A37">
         <v>35449</v>
       </c>
@@ -2250,20 +2510,27 @@
       <c r="H37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
         <v>1</v>
       </c>
-      <c r="J37">
+      <c r="K37" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L37">
         <v>4730.53</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>1109802</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>7.5410000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14" hidden="1">
       <c r="A38">
         <v>31115</v>
       </c>
@@ -2288,20 +2555,27 @@
       <c r="H38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
         <v>0.01</v>
       </c>
-      <c r="J38">
+      <c r="K38" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>3568.39</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>17695308</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>5.3609999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:14" hidden="1">
       <c r="A39">
         <v>3417</v>
       </c>
@@ -2326,20 +2600,27 @@
       <c r="H39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1">
         <v>0.42</v>
       </c>
-      <c r="J39">
+      <c r="K39" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="L39">
         <v>6922.04</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>50692925</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>6.9640000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40">
         <v>43920</v>
       </c>
@@ -2364,20 +2645,27 @@
       <c r="H40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1">
         <v>0.41</v>
       </c>
-      <c r="J40">
+      <c r="K40" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="L40">
         <v>1070.82</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>1889033</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>6.1779999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:14" hidden="1">
       <c r="A41">
         <v>31169</v>
       </c>
@@ -2402,20 +2690,27 @@
       <c r="H41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
         <v>0.27</v>
       </c>
-      <c r="J41">
+      <c r="K41" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L41">
         <v>6739.27</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>65774900.630000003</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>5.444</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:14" hidden="1">
       <c r="A42">
         <v>54337</v>
       </c>
@@ -2440,20 +2735,27 @@
       <c r="H42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="1">
         <v>0.09</v>
       </c>
-      <c r="J42">
+      <c r="K42" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L42">
         <v>4750</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>11943214</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>5.2750000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43">
         <v>31171</v>
       </c>
@@ -2478,20 +2780,27 @@
       <c r="H43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
         <v>0.59</v>
       </c>
-      <c r="J43">
+      <c r="K43" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="L43">
         <v>5319.03</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>11105716.699999999</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>6.5</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14" hidden="1">
       <c r="A44">
         <v>31150</v>
       </c>
@@ -2516,21 +2825,28 @@
       <c r="H44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1">
         <v>0.22</v>
       </c>
-      <c r="J44">
+      <c r="K44" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L44">
         <v>5367.94</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <f>15.5*D44</f>
         <v>130523748.5</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>6.33</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:14" hidden="1">
       <c r="A45">
         <v>31117</v>
       </c>
@@ -2555,20 +2871,27 @@
       <c r="H45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1">
         <v>0.71</v>
       </c>
-      <c r="J45">
+      <c r="K45" s="7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L45">
         <v>4692.1000000000004</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>99924</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>7.298</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:14" hidden="1">
       <c r="A46">
         <v>35993</v>
       </c>
@@ -2593,20 +2916,34 @@
       <c r="H46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1">
         <v>0.03</v>
       </c>
-      <c r="J46">
+      <c r="K46" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L46">
         <v>7851.16</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>161238000</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>6.4939999999999998</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N46" xr:uid="{95F0525E-17CB-4F7E-9BEF-9CA84C9379DA}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="In progress"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>